--- a/data/league_data/france/18/france_shooting.xlsx
+++ b/data/league_data/france/18/france_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B97F0C-428A-1C42-9310-93EA63927BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CB741-77AD-8A4B-931E-EA4B856C6244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1856,12 +1853,15 @@
   </si>
   <si>
     <t>Gabriel Dos Santos</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2719,14 +2719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2754,7 +2754,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4222,15 +4222,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>42</v>
@@ -4299,12 +4299,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -4376,12 +4376,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
@@ -4443,15 +4443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>42</v>
@@ -4520,15 +4520,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>69</v>
@@ -4597,12 +4597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -4611,7 +4611,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3">
         <v>24</v>
@@ -4664,12 +4664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
@@ -4741,15 +4741,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>44</v>
@@ -4818,12 +4818,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
@@ -4895,15 +4895,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>27</v>
@@ -4962,12 +4962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
@@ -5039,12 +5039,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>62</v>
@@ -5106,15 +5106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>44</v>
@@ -5183,12 +5183,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>30</v>
@@ -5197,7 +5197,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="3">
         <v>24</v>
@@ -5260,21 +5260,21 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="3">
         <v>24</v>
@@ -5337,12 +5337,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>30</v>
@@ -5404,15 +5404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>57</v>
@@ -5481,12 +5481,12 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>30</v>
@@ -5558,12 +5558,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
@@ -5572,7 +5572,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>30</v>
@@ -5635,12 +5635,12 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
@@ -5649,7 +5649,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3">
         <v>27</v>
@@ -5712,12 +5712,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
@@ -5789,21 +5789,21 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F42" s="3">
         <v>30</v>
@@ -5866,21 +5866,21 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>23</v>
@@ -5943,21 +5943,21 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="3">
         <v>25</v>
@@ -6020,12 +6020,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>30</v>
@@ -6034,7 +6034,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="3">
         <v>28</v>
@@ -6097,21 +6097,21 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="3">
         <v>24</v>
@@ -6174,12 +6174,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>30</v>
@@ -6251,12 +6251,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>30</v>
@@ -6265,7 +6265,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="3">
         <v>31</v>
@@ -6328,12 +6328,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>30</v>
@@ -6342,7 +6342,7 @@
         <v>59</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="3">
         <v>24</v>
@@ -6405,15 +6405,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>27</v>
@@ -6472,15 +6472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>42</v>
@@ -6549,21 +6549,21 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="3">
         <v>33</v>
@@ -6626,12 +6626,12 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>30</v>
@@ -6703,15 +6703,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>42</v>
@@ -6778,12 +6778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>30</v>
@@ -6792,7 +6792,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="3">
         <v>24</v>
@@ -6855,15 +6855,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>42</v>
@@ -6932,15 +6932,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>59</v>
@@ -7009,12 +7009,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>62</v>
@@ -7086,21 +7086,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" s="3">
         <v>30</v>
@@ -7163,15 +7163,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>59</v>
@@ -7240,12 +7240,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>30</v>
@@ -7317,12 +7317,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>30</v>
@@ -7394,15 +7394,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>42</v>
@@ -7471,12 +7471,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>30</v>
@@ -7548,12 +7548,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>62</v>
@@ -7625,12 +7625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>30</v>
@@ -7702,15 +7702,15 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>42</v>
@@ -7779,15 +7779,15 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>42</v>
@@ -7856,12 +7856,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>30</v>
@@ -7933,15 +7933,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>57</v>
@@ -8010,12 +8010,12 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>30</v>
@@ -8087,12 +8087,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72" s="3">
         <v>25</v>
@@ -8164,12 +8164,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>30</v>
@@ -8241,15 +8241,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>42</v>
@@ -8318,12 +8318,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>30</v>
@@ -8332,7 +8332,7 @@
         <v>27</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75" s="3">
         <v>32</v>
@@ -8385,18 +8385,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>40</v>
@@ -8462,12 +8462,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>30</v>
@@ -8539,15 +8539,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>42</v>
@@ -8616,21 +8616,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="3">
         <v>26</v>
@@ -8693,12 +8693,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>30</v>
@@ -8770,12 +8770,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>30</v>
@@ -8784,7 +8784,7 @@
         <v>59</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="3">
         <v>20</v>
@@ -8847,12 +8847,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>30</v>
@@ -8924,12 +8924,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>30</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>29</v>
@@ -9001,12 +9001,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>30</v>
@@ -9015,7 +9015,7 @@
         <v>44</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F84" s="3">
         <v>22</v>
@@ -9078,21 +9078,21 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" s="3">
         <v>30</v>
@@ -9155,12 +9155,12 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>30</v>
@@ -9232,12 +9232,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>30</v>
@@ -9309,15 +9309,15 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -9376,15 +9376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>59</v>
@@ -9453,12 +9453,12 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>30</v>
@@ -9467,7 +9467,7 @@
         <v>42</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F90" s="3">
         <v>27</v>
@@ -9530,12 +9530,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>62</v>
@@ -9607,21 +9607,21 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F92" s="3">
         <v>24</v>
@@ -9674,15 +9674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>42</v>
@@ -9751,21 +9751,21 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F94" s="3">
         <v>27</v>
@@ -9828,15 +9828,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>59</v>
@@ -9905,15 +9905,15 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
@@ -9982,12 +9982,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>62</v>
@@ -9996,7 +9996,7 @@
         <v>42</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F97" s="3">
         <v>31</v>
@@ -10059,15 +10059,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>42</v>
@@ -10136,12 +10136,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>30</v>
@@ -10213,15 +10213,15 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>57</v>
@@ -10290,21 +10290,21 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>29</v>
@@ -10367,18 +10367,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>63</v>
@@ -10444,12 +10444,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>30</v>
@@ -10521,12 +10521,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>30</v>
@@ -10535,7 +10535,7 @@
         <v>42</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F104" s="3">
         <v>29</v>
@@ -10598,12 +10598,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>30</v>
@@ -10675,21 +10675,21 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F106" s="3">
         <v>21</v>
@@ -10752,12 +10752,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>30</v>
@@ -10829,15 +10829,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>42</v>
@@ -10906,12 +10906,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>30</v>
@@ -10983,15 +10983,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>42</v>
@@ -11060,12 +11060,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>30</v>
@@ -11074,7 +11074,7 @@
         <v>42</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F111" s="3">
         <v>21</v>
@@ -11137,12 +11137,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>30</v>
@@ -11151,7 +11151,7 @@
         <v>42</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F112" s="3">
         <v>25</v>
@@ -11214,15 +11214,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>42</v>
@@ -11291,15 +11291,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>59</v>
@@ -11368,12 +11368,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>30</v>
@@ -11382,7 +11382,7 @@
         <v>42</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F115" s="3">
         <v>25</v>
@@ -11445,18 +11445,18 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>63</v>
@@ -11522,12 +11522,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>30</v>
@@ -11599,12 +11599,12 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>30</v>
@@ -11613,7 +11613,7 @@
         <v>44</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F118" s="3">
         <v>22</v>
@@ -11676,12 +11676,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>30</v>
@@ -11753,12 +11753,12 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>30</v>
@@ -11767,7 +11767,7 @@
         <v>69</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F120" s="3">
         <v>30</v>
@@ -11830,12 +11830,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>30</v>
@@ -11907,15 +11907,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>42</v>
@@ -11984,15 +11984,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>57</v>
@@ -12061,12 +12061,12 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>30</v>
@@ -12136,15 +12136,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>42</v>
@@ -12213,15 +12213,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>44</v>
@@ -12290,15 +12290,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>59</v>
@@ -12367,15 +12367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>69</v>
@@ -12444,15 +12444,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>57</v>
@@ -12521,12 +12521,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>30</v>
@@ -12535,7 +12535,7 @@
         <v>44</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F130" s="3">
         <v>27</v>
@@ -12598,21 +12598,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F131" s="3">
         <v>26</v>
@@ -12675,12 +12675,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>30</v>
@@ -12752,21 +12752,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -12829,12 +12829,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>30</v>
@@ -12843,7 +12843,7 @@
         <v>59</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F134" s="3">
         <v>20</v>
@@ -12906,15 +12906,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>54</v>
@@ -12983,15 +12983,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>44</v>
@@ -13060,12 +13060,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>30</v>
@@ -13074,7 +13074,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F137" s="3">
         <v>24</v>
@@ -13137,12 +13137,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>30</v>
@@ -13151,7 +13151,7 @@
         <v>42</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F138" s="3">
         <v>23</v>
@@ -13214,15 +13214,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>42</v>
@@ -13291,15 +13291,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>57</v>
@@ -13368,12 +13368,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>30</v>
@@ -13382,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F141" s="3">
         <v>30</v>
@@ -13443,21 +13443,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F142" s="3">
         <v>30</v>
@@ -13520,12 +13520,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>30</v>
@@ -13534,7 +13534,7 @@
         <v>57</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F143" s="3">
         <v>27</v>
@@ -13597,21 +13597,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F144" s="3">
         <v>24</v>
@@ -13674,12 +13674,12 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>30</v>
@@ -13688,7 +13688,7 @@
         <v>44</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F145" s="3">
         <v>22</v>
@@ -13751,12 +13751,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>30</v>
@@ -13826,12 +13826,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>30</v>
@@ -13903,15 +13903,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>59</v>
@@ -13980,15 +13980,15 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>57</v>
@@ -14057,12 +14057,12 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>30</v>
@@ -14134,12 +14134,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>30</v>
@@ -14148,7 +14148,7 @@
         <v>42</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F151" s="3">
         <v>28</v>
@@ -14211,21 +14211,21 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F152" s="3">
         <v>32</v>
@@ -14288,21 +14288,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F153" s="3">
         <v>29</v>
@@ -14365,12 +14365,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>30</v>
@@ -14379,7 +14379,7 @@
         <v>42</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F154" s="3">
         <v>25</v>
@@ -14442,12 +14442,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>30</v>
@@ -14456,7 +14456,7 @@
         <v>57</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F155" s="3">
         <v>18</v>
@@ -14519,15 +14519,15 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>59</v>
@@ -14596,15 +14596,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>44</v>
@@ -14673,15 +14673,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>42</v>
@@ -14750,12 +14750,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>30</v>
@@ -14764,7 +14764,7 @@
         <v>42</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F159" s="3">
         <v>28</v>
@@ -14827,21 +14827,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F160" s="3">
         <v>34</v>
@@ -14904,12 +14904,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>30</v>
@@ -14981,15 +14981,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>44</v>
@@ -15058,15 +15058,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>44</v>
@@ -15135,15 +15135,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>42</v>
@@ -15212,15 +15212,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>57</v>
@@ -15289,21 +15289,21 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F166" s="3">
         <v>23</v>
@@ -15366,15 +15366,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>59</v>
@@ -15443,15 +15443,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>59</v>
@@ -15520,12 +15520,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>30</v>
@@ -15597,15 +15597,15 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>69</v>
@@ -15674,21 +15674,21 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F171" s="3">
         <v>27</v>
@@ -15751,15 +15751,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>42</v>
@@ -15828,21 +15828,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F173" s="3">
         <v>22</v>
@@ -15905,12 +15905,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>30</v>
@@ -15982,12 +15982,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>30</v>
@@ -16059,12 +16059,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>30</v>
@@ -16136,21 +16136,21 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F177" s="3">
         <v>21</v>
@@ -16211,15 +16211,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>42</v>
@@ -16288,15 +16288,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>59</v>
@@ -16365,12 +16365,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>30</v>
@@ -16442,21 +16442,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F181" s="3">
         <v>27</v>
@@ -16509,12 +16509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>30</v>
@@ -16584,12 +16584,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>30</v>
@@ -16598,7 +16598,7 @@
         <v>69</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F183" s="3">
         <v>30</v>
@@ -16661,15 +16661,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>44</v>
@@ -16738,12 +16738,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>30</v>
@@ -16815,12 +16815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>30</v>
@@ -16892,15 +16892,15 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>69</v>
@@ -16969,15 +16969,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>59</v>
@@ -17046,15 +17046,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>59</v>
@@ -17123,15 +17123,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>59</v>
@@ -17200,12 +17200,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>30</v>
@@ -17277,12 +17277,12 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>30</v>
@@ -17354,15 +17354,15 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>42</v>
@@ -17431,15 +17431,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>42</v>
@@ -17508,15 +17508,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>42</v>
@@ -17585,21 +17585,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F196" s="3">
         <v>25</v>
@@ -17662,12 +17662,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>30</v>
@@ -17739,21 +17739,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F198" s="3">
         <v>25</v>
@@ -17816,21 +17816,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F199" s="3">
         <v>21</v>
@@ -17893,12 +17893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>30</v>
@@ -17970,12 +17970,12 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>30</v>
@@ -17984,7 +17984,7 @@
         <v>69</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -18047,18 +18047,18 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>37</v>
@@ -18124,21 +18124,21 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F203" s="3">
         <v>26</v>
@@ -18201,21 +18201,21 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F204" s="3">
         <v>27</v>
@@ -18278,21 +18278,21 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F205" s="3">
         <v>34</v>
@@ -18355,12 +18355,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>62</v>
@@ -18432,21 +18432,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F207" s="3">
         <v>24</v>
@@ -18509,21 +18509,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F208" s="3">
         <v>33</v>
@@ -18586,12 +18586,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>30</v>
@@ -18600,7 +18600,7 @@
         <v>59</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F209" s="3">
         <v>33</v>
@@ -18663,21 +18663,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F210" s="3">
         <v>23</v>
@@ -18740,12 +18740,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>30</v>
@@ -18754,7 +18754,7 @@
         <v>42</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F211" s="3">
         <v>24</v>
@@ -18817,15 +18817,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>42</v>
@@ -18894,12 +18894,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>30</v>
@@ -18971,12 +18971,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>30</v>
@@ -19048,21 +19048,21 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -19115,21 +19115,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F216" s="3">
         <v>23</v>
@@ -19192,12 +19192,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>30</v>
@@ -19206,7 +19206,7 @@
         <v>59</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F217" s="3">
         <v>20</v>
@@ -19269,21 +19269,21 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F218" s="3">
         <v>25</v>
@@ -19346,12 +19346,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>30</v>
@@ -19360,7 +19360,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F219" s="3">
         <v>34</v>
@@ -19413,15 +19413,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>44</v>
@@ -19490,12 +19490,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>30</v>
@@ -19567,15 +19567,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>59</v>
@@ -19644,15 +19644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>42</v>
@@ -19721,12 +19721,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>30</v>
@@ -19798,12 +19798,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>30</v>
@@ -19812,7 +19812,7 @@
         <v>59</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F225" s="3">
         <v>25</v>
@@ -19875,15 +19875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>42</v>
@@ -19952,15 +19952,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>42</v>
@@ -20029,15 +20029,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>42</v>
@@ -20106,15 +20106,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>54</v>
@@ -20183,12 +20183,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>30</v>
@@ -20260,15 +20260,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>42</v>
@@ -20337,15 +20337,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>44</v>
@@ -20414,12 +20414,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>30</v>
@@ -20491,21 +20491,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F234" s="3">
         <v>25</v>
@@ -20568,15 +20568,15 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>42</v>
@@ -20645,12 +20645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>30</v>
@@ -20722,18 +20722,18 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>63</v>
@@ -20799,15 +20799,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>44</v>
@@ -20876,15 +20876,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>44</v>
@@ -20953,12 +20953,12 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>30</v>
@@ -21030,18 +21030,18 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>55</v>
@@ -21107,21 +21107,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F242" s="3">
         <v>27</v>
@@ -21184,12 +21184,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>30</v>
@@ -21198,7 +21198,7 @@
         <v>69</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F243" s="3">
         <v>20</v>
@@ -21261,12 +21261,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>30</v>
@@ -21275,7 +21275,7 @@
         <v>27</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F244" s="3">
         <v>25</v>
@@ -21328,12 +21328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>30</v>
@@ -21405,15 +21405,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>42</v>
@@ -21482,15 +21482,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>44</v>
@@ -21559,12 +21559,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>30</v>
@@ -21636,15 +21636,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>42</v>
@@ -21713,12 +21713,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>30</v>
@@ -21790,15 +21790,15 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>44</v>
@@ -21867,12 +21867,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>30</v>
@@ -21942,15 +21942,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>59</v>
@@ -22019,12 +22019,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>30</v>
@@ -22096,21 +22096,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F255" s="3">
         <v>29</v>
@@ -22163,15 +22163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>42</v>
@@ -22240,15 +22240,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>42</v>
@@ -22317,12 +22317,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>30</v>
@@ -22392,12 +22392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>30</v>
@@ -22469,15 +22469,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>54</v>
@@ -22546,12 +22546,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>30</v>
@@ -22623,12 +22623,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>30</v>
@@ -22700,12 +22700,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>30</v>
@@ -22777,12 +22777,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>62</v>
@@ -22854,15 +22854,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>44</v>
@@ -22931,12 +22931,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>30</v>
@@ -22945,7 +22945,7 @@
         <v>69</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F266" s="3">
         <v>30</v>
@@ -23008,12 +23008,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>30</v>
@@ -23022,7 +23022,7 @@
         <v>44</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F267" s="3">
         <v>19</v>
@@ -23085,12 +23085,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>30</v>
@@ -23099,7 +23099,7 @@
         <v>69</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F268" s="3">
         <v>40</v>
@@ -23162,21 +23162,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F269" s="3">
         <v>28</v>
@@ -23239,15 +23239,15 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>44</v>
@@ -23316,12 +23316,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -23393,12 +23393,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>30</v>
@@ -23407,7 +23407,7 @@
         <v>42</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F272" s="3">
         <v>18</v>
@@ -23470,12 +23470,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>30</v>
@@ -23547,15 +23547,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>44</v>
@@ -23624,15 +23624,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>42</v>
@@ -23701,15 +23701,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>69</v>
@@ -23778,15 +23778,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>59</v>
@@ -23855,15 +23855,15 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>42</v>
@@ -23932,12 +23932,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>30</v>
@@ -24009,15 +24009,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>59</v>
@@ -24086,21 +24086,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F281" s="3">
         <v>26</v>
@@ -24163,15 +24163,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>42</v>
@@ -24240,12 +24240,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>30</v>
@@ -24254,7 +24254,7 @@
         <v>42</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F283" s="3">
         <v>24</v>
@@ -24315,15 +24315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>59</v>
@@ -24392,12 +24392,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>30</v>
@@ -24469,15 +24469,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>42</v>
@@ -24544,12 +24544,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>30</v>
@@ -24619,15 +24619,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>44</v>
@@ -24696,15 +24696,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>57</v>
@@ -24773,21 +24773,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F290" s="3">
         <v>26</v>
@@ -24850,12 +24850,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>30</v>
@@ -24864,7 +24864,7 @@
         <v>42</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F291" s="3">
         <v>33</v>
@@ -24927,12 +24927,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>30</v>
@@ -24941,7 +24941,7 @@
         <v>27</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F292" s="3">
         <v>26</v>
@@ -24994,12 +24994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>30</v>
@@ -25071,15 +25071,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>42</v>
@@ -25138,21 +25138,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F295" s="3">
         <v>34</v>
@@ -25215,15 +25215,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>57</v>
@@ -25292,12 +25292,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>30</v>
@@ -25369,12 +25369,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>30</v>
@@ -25446,15 +25446,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>44</v>
@@ -25523,21 +25523,21 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F300" s="3">
         <v>24</v>
@@ -25598,15 +25598,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>57</v>
@@ -25675,15 +25675,15 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>42</v>
@@ -25750,21 +25750,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F303" s="3">
         <v>28</v>
@@ -25827,15 +25827,15 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>42</v>
@@ -25902,15 +25902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>57</v>
@@ -25979,15 +25979,15 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>44</v>
@@ -26056,12 +26056,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>30</v>
@@ -26131,15 +26131,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>59</v>
@@ -26208,15 +26208,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>44</v>
@@ -26285,12 +26285,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>30</v>
@@ -26299,7 +26299,7 @@
         <v>57</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F310" s="3">
         <v>22</v>
@@ -26362,12 +26362,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
@@ -26439,15 +26439,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>59</v>
@@ -26516,12 +26516,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>30</v>
@@ -26593,12 +26593,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>30</v>
@@ -26607,7 +26607,7 @@
         <v>44</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F314" s="3">
         <v>22</v>
@@ -26670,15 +26670,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>59</v>
@@ -26747,18 +26747,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>70</v>
@@ -26824,15 +26824,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>44</v>
@@ -26901,15 +26901,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>59</v>
@@ -26978,18 +26978,18 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>45</v>
@@ -27055,12 +27055,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>30</v>
@@ -27132,21 +27132,21 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F321" s="3">
         <v>25</v>
@@ -27207,12 +27207,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>30</v>
@@ -27284,12 +27284,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>30</v>
@@ -27298,7 +27298,7 @@
         <v>44</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F323" s="3">
         <v>22</v>
@@ -27361,15 +27361,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>42</v>
@@ -27428,15 +27428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>57</v>
@@ -27505,12 +27505,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>30</v>
@@ -27582,21 +27582,21 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F327" s="3">
         <v>25</v>
@@ -27659,12 +27659,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27673,7 +27673,7 @@
         <v>59</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F328" s="3">
         <v>34</v>
@@ -27736,12 +27736,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>47</v>
@@ -27813,21 +27813,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F330" s="3">
         <v>27</v>
@@ -27888,21 +27888,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F331" s="3">
         <v>21</v>
@@ -27965,12 +27965,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>30</v>
@@ -27979,7 +27979,7 @@
         <v>27</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F332" s="3">
         <v>23</v>
@@ -28032,15 +28032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>69</v>
@@ -28109,15 +28109,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>59</v>
@@ -28186,15 +28186,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>59</v>
@@ -28263,21 +28263,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F336" s="3">
         <v>29</v>
@@ -28340,12 +28340,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>30</v>
@@ -28417,21 +28417,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F338" s="3">
         <v>23</v>
@@ -28494,21 +28494,21 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F339" s="3">
         <v>20</v>
@@ -28571,12 +28571,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>30</v>
@@ -28648,15 +28648,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>69</v>
@@ -28725,12 +28725,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>30</v>
@@ -28802,15 +28802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>54</v>
@@ -28879,15 +28879,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>69</v>
@@ -28956,15 +28956,15 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>69</v>
@@ -29033,18 +29033,18 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>45</v>
@@ -29110,21 +29110,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F347" s="3">
         <v>21</v>
@@ -29187,12 +29187,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>30</v>
@@ -29254,12 +29254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>30</v>
@@ -29268,7 +29268,7 @@
         <v>44</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F349" s="3">
         <v>30</v>
@@ -29331,12 +29331,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>30</v>
@@ -29345,7 +29345,7 @@
         <v>44</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F350" s="3">
         <v>21</v>
@@ -29408,15 +29408,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>44</v>
@@ -29485,15 +29485,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>59</v>
@@ -29562,12 +29562,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29639,15 +29639,15 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>57</v>
@@ -29716,15 +29716,15 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>57</v>
@@ -29793,15 +29793,15 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>42</v>
@@ -29870,15 +29870,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>57</v>
@@ -29947,12 +29947,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>30</v>
@@ -30024,12 +30024,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>30</v>
@@ -30101,12 +30101,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>30</v>
@@ -30115,7 +30115,7 @@
         <v>27</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F360" s="3">
         <v>34</v>
@@ -30168,15 +30168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>69</v>
@@ -30245,12 +30245,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>30</v>
@@ -30322,12 +30322,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>30</v>
@@ -30399,18 +30399,18 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>52</v>
@@ -30476,15 +30476,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>42</v>
@@ -30553,15 +30553,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>54</v>
@@ -30628,18 +30628,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>67</v>
@@ -30705,15 +30705,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>69</v>
@@ -30782,12 +30782,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30796,7 +30796,7 @@
         <v>59</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F369" s="3">
         <v>20</v>
@@ -30859,12 +30859,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>30</v>
@@ -30926,12 +30926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>62</v>
@@ -31003,21 +31003,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F372" s="3">
         <v>26</v>
@@ -31080,18 +31080,18 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>55</v>
@@ -31157,15 +31157,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>59</v>
@@ -31234,12 +31234,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31309,15 +31309,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>59</v>
@@ -31386,12 +31386,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>30</v>
@@ -31400,7 +31400,7 @@
         <v>59</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F377" s="3">
         <v>19</v>
@@ -31463,21 +31463,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F378" s="3">
         <v>21</v>
@@ -31538,18 +31538,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>37</v>
@@ -31615,15 +31615,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>54</v>
@@ -31692,21 +31692,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F381" s="3">
         <v>20</v>
@@ -31769,15 +31769,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>44</v>
@@ -31846,12 +31846,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31860,7 +31860,7 @@
         <v>44</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F383" s="3">
         <v>32</v>
@@ -31913,12 +31913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>30</v>
@@ -31927,7 +31927,7 @@
         <v>27</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F384" s="3">
         <v>25</v>
@@ -31980,12 +31980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>30</v>
@@ -32057,12 +32057,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32134,15 +32134,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>59</v>
@@ -32211,12 +32211,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>30</v>
@@ -32288,15 +32288,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>69</v>
@@ -32365,12 +32365,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>30</v>
@@ -32442,12 +32442,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>30</v>
@@ -32519,15 +32519,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>59</v>
@@ -32596,12 +32596,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>30</v>
@@ -32663,21 +32663,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F394" s="3">
         <v>27</v>
@@ -32740,12 +32740,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>30</v>
@@ -32754,7 +32754,7 @@
         <v>69</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F395" s="3">
         <v>22</v>
@@ -32817,15 +32817,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>42</v>
@@ -32894,15 +32894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>59</v>
@@ -32971,21 +32971,21 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F398" s="3">
         <v>24</v>
@@ -33046,21 +33046,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F399" s="3">
         <v>22</v>
@@ -33123,12 +33123,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>30</v>
@@ -33137,7 +33137,7 @@
         <v>54</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F400" s="3">
         <v>17</v>
@@ -33200,12 +33200,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>30</v>
@@ -33277,12 +33277,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -33291,7 +33291,7 @@
         <v>69</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F402" s="3">
         <v>27</v>
@@ -33354,12 +33354,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>51</v>
@@ -33421,12 +33421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>30</v>
@@ -33435,7 +33435,7 @@
         <v>69</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F404" s="3">
         <v>19</v>
@@ -33498,21 +33498,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F405" s="3">
         <v>27</v>
@@ -33575,15 +33575,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>44</v>
@@ -33652,15 +33652,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>59</v>
@@ -33729,12 +33729,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33806,15 +33806,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>69</v>
@@ -33883,15 +33883,15 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>57</v>
@@ -33958,12 +33958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -34035,21 +34035,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F412" s="3">
         <v>33</v>
@@ -34112,15 +34112,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>57</v>
@@ -34189,15 +34189,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>69</v>
@@ -34266,15 +34266,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>42</v>
@@ -34341,12 +34341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>30</v>
@@ -34408,15 +34408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>27</v>
@@ -34475,15 +34475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>59</v>
@@ -34552,21 +34552,21 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F419" s="3">
         <v>27</v>
@@ -34619,12 +34619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>30</v>
@@ -34694,12 +34694,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>30</v>
@@ -34708,7 +34708,7 @@
         <v>42</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F421" s="3">
         <v>36</v>
@@ -34769,12 +34769,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>30</v>
@@ -34783,7 +34783,7 @@
         <v>54</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F422" s="3">
         <v>27</v>
@@ -34846,21 +34846,21 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F423" s="3">
         <v>33</v>
@@ -34923,15 +34923,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>57</v>
@@ -35000,15 +35000,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>42</v>
@@ -35075,12 +35075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>30</v>
@@ -35152,15 +35152,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>42</v>
@@ -35229,12 +35229,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>30</v>
@@ -35306,12 +35306,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -35383,15 +35383,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>27</v>
@@ -35450,12 +35450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>30</v>
@@ -35527,12 +35527,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>30</v>
@@ -35594,12 +35594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>30</v>
@@ -35671,12 +35671,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>30</v>
@@ -35748,18 +35748,18 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>31</v>
@@ -35823,12 +35823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>30</v>
@@ -35898,12 +35898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>30</v>
@@ -35973,12 +35973,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>30</v>
@@ -35987,7 +35987,7 @@
         <v>27</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F438" s="3">
         <v>33</v>
@@ -36040,15 +36040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>27</v>
@@ -36107,12 +36107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>30</v>
@@ -36182,12 +36182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>30</v>
@@ -36257,12 +36257,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>30</v>
@@ -36271,7 +36271,7 @@
         <v>57</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F442" s="3">
         <v>20</v>
@@ -36324,15 +36324,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>42</v>
@@ -36399,21 +36399,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F444" s="3">
         <v>23</v>
@@ -36466,15 +36466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>27</v>
@@ -36533,12 +36533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>30</v>
@@ -36547,7 +36547,7 @@
         <v>59</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F446" s="3">
         <v>19</v>
@@ -36610,15 +36610,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>42</v>
@@ -36677,12 +36677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>30</v>
@@ -36752,15 +36752,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>27</v>
@@ -36819,12 +36819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36886,18 +36886,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>70</v>
@@ -36953,15 +36953,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>59</v>
@@ -37030,12 +37030,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -37105,15 +37105,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>44</v>
@@ -37182,15 +37182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>59</v>
@@ -37259,15 +37259,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>54</v>
@@ -37326,15 +37326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>44</v>
@@ -37403,12 +37403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>30</v>
@@ -37480,15 +37480,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>44</v>
@@ -37555,15 +37555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>69</v>
@@ -37632,12 +37632,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37709,15 +37709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>59</v>
@@ -37784,12 +37784,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>30</v>
@@ -37798,7 +37798,7 @@
         <v>59</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -37861,12 +37861,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>30</v>
@@ -37928,12 +37928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -37995,15 +37995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>44</v>
@@ -38062,12 +38062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -38076,7 +38076,7 @@
         <v>44</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F467" s="3">
         <v>28</v>
@@ -38137,15 +38137,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>54</v>
@@ -38214,12 +38214,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>30</v>
@@ -38228,7 +38228,7 @@
         <v>44</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F469" s="3">
         <v>20</v>
@@ -38281,15 +38281,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>42</v>
@@ -38348,21 +38348,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F471" s="3">
         <v>27</v>
@@ -38425,12 +38425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38500,18 +38500,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E473" s="3" t="s">
         <v>55</v>
@@ -38567,12 +38567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38642,15 +38642,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>57</v>
@@ -38719,15 +38719,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>69</v>
@@ -38794,21 +38794,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F477" s="3">
         <v>23</v>
@@ -38869,21 +38869,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F478" s="3">
         <v>17</v>
@@ -38946,12 +38946,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>30</v>
@@ -39013,18 +39013,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>70</v>
@@ -39090,12 +39090,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>30</v>
@@ -39165,18 +39165,18 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E482" s="3" t="s">
         <v>48</v>
@@ -39232,15 +39232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>59</v>
@@ -39307,12 +39307,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39321,7 +39321,7 @@
         <v>59</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F484" s="3">
         <v>27</v>
@@ -39382,12 +39382,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>30</v>
@@ -39457,12 +39457,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>30</v>
@@ -39524,12 +39524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>30</v>
@@ -39591,12 +39591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>30</v>
@@ -39658,12 +39658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>30</v>
@@ -39725,12 +39725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>30</v>
@@ -39739,7 +39739,7 @@
         <v>69</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F490" s="3">
         <v>25</v>
@@ -39802,15 +39802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>42</v>
@@ -39869,21 +39869,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F492" s="3">
         <v>31</v>
@@ -39936,15 +39936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>59</v>
@@ -40013,12 +40013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -40080,15 +40080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>27</v>
@@ -40147,12 +40147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40222,15 +40222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>42</v>
@@ -40289,15 +40289,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>59</v>
@@ -40366,21 +40366,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F499" s="3">
         <v>22</v>
@@ -40433,21 +40433,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F500" s="3">
         <v>19</v>
@@ -40500,7 +40500,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/18/france_shooting.xlsx
+++ b/data/league_data/france/18/france_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CB741-77AD-8A4B-931E-EA4B856C6244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2305EA-C68F-4D49-8BF6-BEB25BCC56DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,9 +883,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1856,6 +1853,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4227,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>71</v>
@@ -17513,7 +17513,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>287</v>
+        <v>611</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>71</v>
@@ -17590,7 +17590,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>71</v>
@@ -17667,7 +17667,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>30</v>
@@ -17744,7 +17744,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>225</v>
@@ -17821,7 +17821,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>96</v>
@@ -17898,7 +17898,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>30</v>
@@ -17975,7 +17975,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>30</v>
@@ -18052,7 +18052,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>71</v>
@@ -18129,7 +18129,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>254</v>
@@ -18206,10 +18206,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>42</v>
@@ -18283,7 +18283,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>75</v>
@@ -18360,7 +18360,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>62</v>
@@ -18437,7 +18437,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>212</v>
@@ -18514,10 +18514,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>42</v>
@@ -18591,7 +18591,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>30</v>
@@ -18668,10 +18668,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>69</v>
@@ -18745,7 +18745,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>30</v>
@@ -18822,10 +18822,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>42</v>
@@ -18899,7 +18899,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>30</v>
@@ -18976,7 +18976,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>30</v>
@@ -19053,7 +19053,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>75</v>
@@ -19120,7 +19120,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>92</v>
@@ -19197,7 +19197,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>30</v>
@@ -19274,7 +19274,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>92</v>
@@ -19351,7 +19351,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>30</v>
@@ -19418,7 +19418,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>96</v>
@@ -19495,7 +19495,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>30</v>
@@ -19572,7 +19572,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>164</v>
@@ -19649,7 +19649,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>75</v>
@@ -19726,7 +19726,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>30</v>
@@ -19803,7 +19803,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>30</v>
@@ -19880,7 +19880,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>221</v>
@@ -19957,7 +19957,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>164</v>
@@ -20034,7 +20034,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>212</v>
@@ -20111,7 +20111,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>225</v>
@@ -20188,7 +20188,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>30</v>
@@ -20265,7 +20265,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>75</v>
@@ -20342,7 +20342,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>106</v>
@@ -20419,7 +20419,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>30</v>
@@ -20496,7 +20496,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>242</v>
@@ -20573,7 +20573,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>180</v>
@@ -20650,7 +20650,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>30</v>
@@ -20727,7 +20727,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>108</v>
@@ -20804,7 +20804,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>261</v>
@@ -20881,7 +20881,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>242</v>
@@ -20958,7 +20958,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>30</v>
@@ -21035,7 +21035,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>225</v>
@@ -21112,7 +21112,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>106</v>
@@ -21189,7 +21189,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>30</v>
@@ -21266,7 +21266,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>30</v>
@@ -21333,7 +21333,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>30</v>
@@ -21410,7 +21410,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>92</v>
@@ -21487,7 +21487,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>71</v>
@@ -21564,7 +21564,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>30</v>
@@ -21641,10 +21641,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>42</v>
@@ -21718,7 +21718,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>30</v>
@@ -21795,7 +21795,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>71</v>
@@ -21872,7 +21872,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>30</v>
@@ -21947,7 +21947,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>75</v>
@@ -22024,7 +22024,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>30</v>
@@ -22101,7 +22101,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>202</v>
@@ -22168,10 +22168,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>42</v>
@@ -22245,10 +22245,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>42</v>
@@ -22322,7 +22322,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>30</v>
@@ -22397,7 +22397,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>30</v>
@@ -22474,10 +22474,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>54</v>
@@ -22551,7 +22551,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>30</v>
@@ -22628,7 +22628,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>30</v>
@@ -22705,7 +22705,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>30</v>
@@ -22782,7 +22782,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>62</v>
@@ -22859,7 +22859,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>75</v>
@@ -22936,7 +22936,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>30</v>
@@ -23013,7 +23013,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>30</v>
@@ -23090,7 +23090,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>30</v>
@@ -23167,7 +23167,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>96</v>
@@ -23244,7 +23244,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>75</v>
@@ -23321,7 +23321,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -23398,7 +23398,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>30</v>
@@ -23475,7 +23475,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>30</v>
@@ -23552,10 +23552,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>44</v>
@@ -23629,7 +23629,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>71</v>
@@ -23706,7 +23706,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>180</v>
@@ -23783,10 +23783,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>59</v>
@@ -23860,7 +23860,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>71</v>
@@ -23937,7 +23937,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>30</v>
@@ -24014,7 +24014,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>106</v>
@@ -24091,7 +24091,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>232</v>
@@ -24168,7 +24168,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>108</v>
@@ -24245,7 +24245,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>30</v>
@@ -24320,7 +24320,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>77</v>
@@ -24397,7 +24397,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>30</v>
@@ -24474,10 +24474,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>42</v>
@@ -24549,7 +24549,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>30</v>
@@ -24624,7 +24624,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>202</v>
@@ -24701,7 +24701,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>244</v>
@@ -24778,7 +24778,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>92</v>
@@ -24855,7 +24855,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>30</v>
@@ -24932,7 +24932,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>30</v>
@@ -24999,7 +24999,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>30</v>
@@ -25076,10 +25076,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>42</v>
@@ -25143,7 +25143,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>212</v>
@@ -25220,7 +25220,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>180</v>
@@ -25297,7 +25297,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>30</v>
@@ -25374,7 +25374,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>30</v>
@@ -25451,7 +25451,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>242</v>
@@ -25528,10 +25528,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>42</v>
@@ -25603,7 +25603,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>96</v>
@@ -25680,7 +25680,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>92</v>
@@ -25755,10 +25755,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>44</v>
@@ -25832,10 +25832,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>42</v>
@@ -25907,10 +25907,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>57</v>
@@ -25984,7 +25984,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>84</v>
@@ -26061,7 +26061,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>30</v>
@@ -26136,7 +26136,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>234</v>
@@ -26213,7 +26213,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>244</v>
@@ -26290,7 +26290,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>30</v>
@@ -26367,7 +26367,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
@@ -26444,7 +26444,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>75</v>
@@ -26521,7 +26521,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>30</v>
@@ -26598,7 +26598,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>30</v>
@@ -26675,7 +26675,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>202</v>
@@ -26752,7 +26752,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>202</v>
@@ -26829,7 +26829,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>119</v>
@@ -26906,7 +26906,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>225</v>
@@ -26983,7 +26983,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>92</v>
@@ -27060,7 +27060,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>30</v>
@@ -27137,7 +27137,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>75</v>
@@ -27212,7 +27212,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>30</v>
@@ -27289,7 +27289,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>30</v>
@@ -27366,7 +27366,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>106</v>
@@ -27433,7 +27433,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>75</v>
@@ -27510,7 +27510,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>30</v>
@@ -27587,7 +27587,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>202</v>
@@ -27664,7 +27664,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27741,7 +27741,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>47</v>
@@ -27818,10 +27818,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>42</v>
@@ -27893,7 +27893,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>112</v>
@@ -27970,7 +27970,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>30</v>
@@ -28037,10 +28037,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>69</v>
@@ -28114,7 +28114,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>286</v>
@@ -28191,7 +28191,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>244</v>
@@ -28268,10 +28268,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>57</v>
@@ -28345,7 +28345,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>30</v>
@@ -28422,7 +28422,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>92</v>
@@ -28499,7 +28499,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>88</v>
@@ -28576,7 +28576,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>30</v>
@@ -28653,7 +28653,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>96</v>
@@ -28730,7 +28730,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>30</v>
@@ -28807,7 +28807,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>221</v>
@@ -28884,7 +28884,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>106</v>
@@ -28961,7 +28961,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>75</v>
@@ -29038,10 +29038,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>103</v>
@@ -29115,7 +29115,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>108</v>
@@ -29192,7 +29192,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>30</v>
@@ -29259,7 +29259,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>30</v>
@@ -29336,7 +29336,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>30</v>
@@ -29413,7 +29413,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>158</v>
@@ -29490,10 +29490,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>59</v>
@@ -29567,7 +29567,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29644,7 +29644,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>75</v>
@@ -29721,7 +29721,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>106</v>
@@ -29798,10 +29798,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>42</v>
@@ -29875,10 +29875,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>57</v>
@@ -29952,7 +29952,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>30</v>
@@ -30029,7 +30029,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>30</v>
@@ -30106,7 +30106,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>30</v>
@@ -30173,7 +30173,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>221</v>
@@ -30250,7 +30250,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>30</v>
@@ -30327,7 +30327,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>30</v>
@@ -30404,7 +30404,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>30</v>
@@ -30481,10 +30481,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>42</v>
@@ -30558,7 +30558,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>106</v>
@@ -30633,7 +30633,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>106</v>
@@ -30710,7 +30710,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>261</v>
@@ -30787,7 +30787,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30864,7 +30864,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>30</v>
@@ -30931,7 +30931,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>62</v>
@@ -31008,7 +31008,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>172</v>
@@ -31085,10 +31085,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>103</v>
@@ -31162,7 +31162,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>242</v>
@@ -31239,7 +31239,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31314,7 +31314,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>71</v>
@@ -31391,7 +31391,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>30</v>
@@ -31468,7 +31468,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>75</v>
@@ -31543,7 +31543,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>30</v>
@@ -31620,10 +31620,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>54</v>
@@ -31697,7 +31697,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>30</v>
@@ -31774,7 +31774,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>92</v>
@@ -31851,7 +31851,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31918,7 +31918,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>30</v>
@@ -31985,7 +31985,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>30</v>
@@ -32062,7 +32062,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32139,7 +32139,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>77</v>
@@ -32216,7 +32216,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>30</v>
@@ -32293,7 +32293,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>71</v>
@@ -32370,7 +32370,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>30</v>
@@ -32447,7 +32447,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>30</v>
@@ -32524,7 +32524,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>92</v>
@@ -32601,7 +32601,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>30</v>
@@ -32668,7 +32668,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>88</v>
@@ -32745,7 +32745,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>30</v>
@@ -32822,7 +32822,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>75</v>
@@ -32899,7 +32899,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>75</v>
@@ -32976,10 +32976,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>42</v>
@@ -33051,7 +33051,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>242</v>
@@ -33128,7 +33128,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>30</v>
@@ -33205,7 +33205,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>30</v>
@@ -33282,7 +33282,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -33359,7 +33359,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>51</v>
@@ -33426,7 +33426,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>30</v>
@@ -33503,7 +33503,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>202</v>
@@ -33580,7 +33580,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>77</v>
@@ -33657,7 +33657,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>96</v>
@@ -33734,7 +33734,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33811,7 +33811,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>77</v>
@@ -33888,10 +33888,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>57</v>
@@ -33963,7 +33963,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -34040,7 +34040,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>164</v>
@@ -34117,7 +34117,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>77</v>
@@ -34194,10 +34194,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>69</v>
@@ -34271,10 +34271,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>42</v>
@@ -34346,7 +34346,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>30</v>
@@ -34413,7 +34413,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>180</v>
@@ -34480,7 +34480,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>250</v>
@@ -34557,10 +34557,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>27</v>
@@ -34624,7 +34624,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>30</v>
@@ -34699,7 +34699,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>30</v>
@@ -34774,7 +34774,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>30</v>
@@ -34851,7 +34851,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>88</v>
@@ -34928,7 +34928,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>108</v>
@@ -35005,10 +35005,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>42</v>
@@ -35080,7 +35080,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>30</v>
@@ -35157,7 +35157,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>225</v>
@@ -35234,7 +35234,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>30</v>
@@ -35311,7 +35311,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>26</v>
@@ -35388,10 +35388,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>27</v>
@@ -35455,7 +35455,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>30</v>
@@ -35532,7 +35532,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>30</v>
@@ -35599,7 +35599,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>30</v>
@@ -35753,7 +35753,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>30</v>
@@ -35828,7 +35828,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>30</v>
@@ -35903,7 +35903,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>30</v>
@@ -35978,7 +35978,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>30</v>
@@ -36045,7 +36045,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>75</v>
@@ -36112,7 +36112,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>30</v>
@@ -36187,7 +36187,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>30</v>
@@ -36262,7 +36262,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>30</v>
@@ -36329,7 +36329,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>164</v>
@@ -36404,7 +36404,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>75</v>
@@ -36471,7 +36471,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>75</v>
@@ -36538,7 +36538,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>30</v>
@@ -36615,10 +36615,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>42</v>
@@ -36757,10 +36757,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>27</v>
@@ -36824,7 +36824,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36891,7 +36891,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>62</v>
@@ -36958,10 +36958,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>59</v>
@@ -37035,7 +37035,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -37110,10 +37110,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>44</v>
@@ -37187,7 +37187,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>221</v>
@@ -37264,7 +37264,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>108</v>
@@ -37331,7 +37331,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>92</v>
@@ -37408,7 +37408,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>30</v>
@@ -37485,10 +37485,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>44</v>
@@ -37560,7 +37560,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>108</v>
@@ -37637,7 +37637,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37714,7 +37714,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>202</v>
@@ -37789,7 +37789,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>30</v>
@@ -37866,7 +37866,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>30</v>
@@ -37933,7 +37933,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -38000,10 +38000,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>44</v>
@@ -38067,7 +38067,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -38142,7 +38142,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>221</v>
@@ -38219,7 +38219,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>30</v>
@@ -38286,7 +38286,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>254</v>
@@ -38353,7 +38353,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>75</v>
@@ -38430,7 +38430,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38505,7 +38505,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>30</v>
@@ -38572,7 +38572,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38647,7 +38647,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>96</v>
@@ -38724,10 +38724,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>69</v>
@@ -38799,7 +38799,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>106</v>
@@ -38874,10 +38874,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>57</v>
@@ -38951,7 +38951,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>30</v>
@@ -39018,13 +39018,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>70</v>
@@ -39095,7 +39095,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>30</v>
@@ -39170,10 +39170,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>148</v>
@@ -39237,7 +39237,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>254</v>
@@ -39312,7 +39312,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39387,7 +39387,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>30</v>
@@ -39462,7 +39462,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>30</v>
@@ -39529,7 +39529,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>30</v>
@@ -39596,7 +39596,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>30</v>
@@ -39663,7 +39663,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>30</v>
@@ -39730,7 +39730,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>30</v>
@@ -39807,7 +39807,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>225</v>
@@ -39874,10 +39874,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>42</v>
@@ -39941,7 +39941,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>242</v>
@@ -40018,7 +40018,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -40085,7 +40085,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>202</v>
@@ -40152,7 +40152,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40227,7 +40227,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>77</v>
@@ -40294,7 +40294,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>71</v>
@@ -40371,7 +40371,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>71</v>
@@ -40438,7 +40438,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>71</v>
